--- a/biology/Zoologie/Anetia_jaegeri/Anetia_jaegeri.xlsx
+++ b/biology/Zoologie/Anetia_jaegeri/Anetia_jaegeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anetia jaegeri est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Anetia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anetia jaegeri a été décrit par Édouard Ménétries en 1832 sous le nom initial d’Argynis jaegeri[1].
-Noms vernaculaires
-Anetia jaegeri se nomme Hispaniolan King en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia jaegeri a été décrit par Édouard Ménétries en 1832 sous le nom initial d’Argynis jaegeri.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia jaegeri se nomme Hispaniolan King en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anetia_jaegeri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anetia_jaegeri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anetia jaegeri est un grand papillon aux ailes antérieures à bord costal bossu, bord externe concave et bord interne droit.
 Les ailes sont de couleur marron clair ornées de taches jaune disposées une ligne marginale et aux ailes antérieures une autre ligne puis une ligne de taches marron cernées de jaune.
@@ -553,36 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anetia_jaegeri</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anetia_jaegeri</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -607,12 +628,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anetia briarea est présent à la Jamaïque et en République dominicaine[1].
-Biotope
-Protection
-Marqué NT sur le Red Data Book[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia briarea est présent à la Jamaïque et en République dominicaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anetia_jaegeri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anetia_jaegeri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marqué NT sur le Red Data Book.
 </t>
         </is>
       </c>
